--- a/Practical_12.xlsx
+++ b/Practical_12.xlsx
@@ -111,9 +111,6 @@
     <t>Calculate the age</t>
   </si>
   <si>
-    <t>Days,Months left for your birthday</t>
-  </si>
-  <si>
     <t>Days</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Birthday</t>
+  </si>
+  <si>
+    <t>Days,Months elapsed for your birthday</t>
   </si>
 </sst>
 </file>
@@ -175,10 +175,10 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -186,55 +186,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -5090,7 +5042,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5102,12 +5054,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="3" t="str">
         <f>"Total Amount Spent In "&amp;B3</f>
         <v>Total Amount Spent In United States</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -5230,7 +5182,7 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>36414</v>
       </c>
     </row>
@@ -5238,22 +5190,22 @@
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f ca="1">TODAY()</f>
-        <v>43706</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+        <v>43749</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
         <v>43719</v>
       </c>
     </row>
@@ -5263,17 +5215,17 @@
       </c>
       <c r="C22">
         <f ca="1">DATEDIF(C19,C20,"y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <f ca="1">DATEDIF(C19,C20,"y")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
         <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -5282,19 +5234,19 @@
       </c>
       <c r="C23">
         <f ca="1">DATEDIF(C19,C20,"m")</f>
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D23">
         <f ca="1">DATEDIF(C19,C20,"ym")</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <f ca="1">DATEDIF(C20,C21,"md")</f>
-        <v>13</v>
+        <f ca="1">DATEDIF(C21,C20,"md")</f>
+        <v>0</v>
       </c>
       <c r="H23">
-        <f ca="1">DATEDIF(C20,C21,"ym")</f>
-        <v>0</v>
+        <f ca="1">DATEDIF(C21,C20,"ym")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -5303,11 +5255,11 @@
       </c>
       <c r="C24">
         <f ca="1">DATEDIF(C19,C20,"d")</f>
-        <v>7292</v>
+        <v>7335</v>
       </c>
       <c r="D24">
         <f ca="1">DATEDIF(C19,C20,"md")</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
